--- a/WIS_baseline_upload.xlsx
+++ b/WIS_baseline_upload.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\.ssh\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7309391-5853-42BA-BFB4-415113E0238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5497A3-A477-4275-B144-B6F5F5981461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32BF90D3-7386-437C-8165-62F86137D3AD}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{32BF90D3-7386-437C-8165-62F86137D3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -596,7 +596,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
